--- a/data/trans_bre/IP15-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP15-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-10,18; 11,41</t>
+          <t>-9,55; 10,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,76; 14,07</t>
+          <t>-7,19; 14,19</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,96; 24,9</t>
+          <t>2,88; 25,98</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-14,41; 16,87</t>
+          <t>-14,92; 14,72</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-35,15; 63,85</t>
+          <t>-33,01; 55,31</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-26,13; 86,27</t>
+          <t>-28,17; 91,8</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 307,37</t>
+          <t>8,22; 328,18</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-47,67; 92,86</t>
+          <t>-48,18; 84,88</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 5,33</t>
+          <t>-3,2; 5,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,98; 3,03</t>
+          <t>-5,28; 3,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 3,67</t>
+          <t>-3,72; 4,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 5,75</t>
+          <t>-5,66; 4,97</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-15,87; 32,89</t>
+          <t>-15,75; 33,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-22,83; 16,9</t>
+          <t>-23,59; 18,81</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-22,5; 23,17</t>
+          <t>-20,14; 28,09</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-22,24; 26,46</t>
+          <t>-22,59; 23,29</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-16,39; -3,26</t>
+          <t>-16,14; -2,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,98; 6,87</t>
+          <t>-9,23; 5,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,53; 7,78</t>
+          <t>-5,51; 7,21</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,09; 10,99</t>
+          <t>-6,52; 10,84</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-63,97; -18,07</t>
+          <t>-61,58; -12,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-33,77; 37,26</t>
+          <t>-33,84; 30,33</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-31,27; 58,91</t>
+          <t>-30,43; 59,58</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-20,35; 52,92</t>
+          <t>-21,51; 49,87</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 1,89</t>
+          <t>-5,05; 1,92</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 3,24</t>
+          <t>-3,76; 3,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 4,82</t>
+          <t>-1,54; 4,64</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 5,04</t>
+          <t>-4,3; 4,58</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-22,81; 10,41</t>
+          <t>-23,17; 10,85</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-16,84; 16,6</t>
+          <t>-16,78; 16,35</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-9,53; 31,96</t>
+          <t>-8,35; 30,96</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-14,82; 24,11</t>
+          <t>-16,69; 21,3</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP15-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP15-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3,96</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>13,62</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>4,49</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,84%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>106,36%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,77%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,29; 10,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,2; 14,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,15; 25,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,62; 29,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,55; 61,13</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,09; 92,43</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,92; 301,55</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,64; 157,55</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,96</t>
+          <t>-0,92</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>13,62</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,22</t>
+          <t>3,02</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>5,53%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>18,84%</t>
+          <t>-4,51%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>106,36%</t>
+          <t>0,29%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-0,91%</t>
+          <t>13,0%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-9,55; 10,06</t>
+          <t>-2,89; 5,22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,19; 14,19</t>
+          <t>-5,16; 3,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,88; 25,98</t>
+          <t>-3,83; 3,98</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-14,92; 14,72</t>
+          <t>-3,33; 18,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-33,01; 55,31</t>
+          <t>-14,42; 31,95</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-28,17; 91,8</t>
+          <t>-22,94; 18,47</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,22; 328,18</t>
+          <t>-20,15; 25,26</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-48,18; 84,88</t>
+          <t>-14,17; 85,65</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>-9,35</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,92</t>
+          <t>-1,27</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,73</t>
+          <t>2,48</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,53%</t>
+          <t>-41,91%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-4,51%</t>
+          <t>-5,51%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>8,27%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-3,14%</t>
+          <t>9,77%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 5,5</t>
+          <t>-15,41; -2,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 3,46</t>
+          <t>-8,6; 6,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 4,49</t>
+          <t>-5,38; 6,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,66; 4,97</t>
+          <t>-6,51; 10,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-15,75; 33,56</t>
+          <t>-59,35; -15,06</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-23,59; 18,81</t>
+          <t>-32,36; 36,69</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-20,14; 28,09</t>
+          <t>-29,48; 53,77</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-22,59; 23,29</t>
+          <t>-21,14; 50,29</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-9,35</t>
+          <t>-1,43</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,27</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,27</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,26</t>
+          <t>2,98</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-41,91%</t>
+          <t>-7,23%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-5,51%</t>
+          <t>-1,62%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>8,27%</t>
+          <t>9,34%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>9,01%</t>
+          <t>12,43%</t>
         </is>
       </c>
     </row>
@@ -968,156 +968,55 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-16,14; -2,62</t>
+          <t>-4,81; 1,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-9,23; 5,94</t>
+          <t>-3,82; 3,29</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,51; 7,21</t>
+          <t>-1,48; 4,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,52; 10,84</t>
+          <t>-2,2; 12,68</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-61,58; -12,74</t>
+          <t>-22,6; 9,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-33,84; 30,33</t>
+          <t>-16,23; 17,29</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-30,43; 59,58</t>
+          <t>-8,09; 32,24</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-21,51; 49,87</t>
+          <t>-8,98; 54,44</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-1,51</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-0,32</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>1,55</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-0,06</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-7,6%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-1,54%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>9,34%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-0,25%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-5,05; 1,92</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-3,76; 3,19</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-1,54; 4,64</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-4,3; 4,58</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-23,17; 10,85</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-16,78; 16,35</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-8,35; 30,96</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-16,69; 21,3</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
